--- a/otherStuff/Kassenblatt.xlsx
+++ b/otherStuff/Kassenblatt.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Blattnummer:</t>
-  </si>
-  <si>
-    <t>Laufende Nummer</t>
   </si>
   <si>
     <t>Familien
@@ -28,12 +25,22 @@
   <si>
     <t>Preis</t>
   </si>
+  <si>
+    <t>,      €</t>
+  </si>
+  <si>
+    <t>Laufd.
+Nr.</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -58,6 +65,17 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -106,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +138,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -421,17 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -442,415 +470,343 @@
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2">
-        <v>52</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2">
-        <v>53</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2">
-        <v>54</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2">
-        <v>56</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2">
-        <v>57</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2">
-        <v>58</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2">
-        <v>59</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2">
-        <v>60</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
